--- a/MySQL/20-elasticearch.xlsx
+++ b/MySQL/20-elasticearch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Linux下Elasticsearch安装</t>
   </si>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>①查看是否安装了jdk
 java -verrsion
 ②5：vim /etc/profile
@@ -84,6 +92,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>集群名：</t>
     </r>
     <r>
@@ -100,6 +116,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>节点：</t>
     </r>
     <r>
@@ -116,6 +140,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>数据存储目录：</t>
     </r>
     <r>
@@ -131,6 +163,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日志：</t>
     </r>
     <r>
@@ -147,6 +187,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>允许访问host：</t>
     </r>
     <r>
@@ -163,6 +211,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>允许访问port：</t>
     </r>
     <r>
@@ -179,6 +235,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>集群中所有节点名称：</t>
     </r>
     <r>
@@ -194,6 +258,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>设置内存空间初始大小</t>
     </r>
     <r>
@@ -232,6 +304,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">添加用于启动Elasticsearch的用户：useradd -m </t>
     </r>
     <r>
@@ -300,7 +380,18 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>5：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>启动：</t>
     </r>
     <r>
@@ -338,6 +429,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>elasticsearch基本概念：</t>
     </r>
     <r>
@@ -435,7 +534,7 @@
   </si>
   <si>
     <r>
-      <t>Elasticsearch-head安装【Elasticsearch可视化操作界面】</t>
+      <t>kibana安装【Elasticsearch可视化操作界面】</t>
     </r>
     <r>
       <rPr>
@@ -446,6 +545,234 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>推荐使用</t>
+    </r>
+  </si>
+  <si>
+    <t>wget下载kibana.tar.gz包 -&gt; 在/usr/local/解压</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">给予用户组权限：chown -R </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elasticsearch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">elasticsearch解压目录 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【用的是在安装elasticsearch时创建的用户，也可再新建用户但没必要】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>修改配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/usr/locl/kibana/config/kibana.yml</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去掉注释</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  =》  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>server.port</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>server.host</t>
+    </r>
+  </si>
+  <si>
+    <t>切换非root用户启动：/usr/locl/kibana/bin/kibana</t>
+  </si>
+  <si>
+    <r>
+      <t>访问Elasticsearch-kibana可视化操作界面：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFF83DED"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本机IP:5601</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要开放：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5601</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>端口】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elasticsearch-head安装【Elasticsearch可视化操作界面】</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不推荐使用</t>
     </r>
   </si>
@@ -457,6 +784,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>①：wget下载  =&gt; 在/usr/local/解压
 ②：配置环境变量
 vim /etc/profile
@@ -501,70 +836,6 @@
   </si>
   <si>
     <t>启动：进入/usr/local/Elasticsearch-head目录  =》  npm run start</t>
-  </si>
-  <si>
-    <t>kibana安装【Elasticsearch可视化操作界面】</t>
-  </si>
-  <si>
-    <t>1:</t>
-  </si>
-  <si>
-    <t>wget下载kibana.tar.gz包 -&gt; 在/usr/local/解压</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">给予用户组权限：chown -R </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elasticsearch</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">elasticsearch解压目录 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFF83DED"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【用的是在安装elasticsearch时创建的用户，也可再新建用户但没必要】</t>
-    </r>
-  </si>
-  <si>
-    <t>修改配置文件/usr/locl/kibana/config/kibana.yml，去掉注释  =》  server.port和 server.host</t>
-  </si>
-  <si>
-    <t>切换非root用户启动：/usr/locl/kibana/bin/kibana</t>
   </si>
 </sst>
 </file>
@@ -572,12 +843,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,14 +882,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -635,14 +898,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFF83DED"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -682,9 +937,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,8 +958,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,8 +1026,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,106 +1073,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -862,22 +1110,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -888,187 +1120,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,6 +1311,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1097,25 +1338,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1132,6 +1360,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,22 +1397,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,152 +1416,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1342,61 +1574,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1761,10 +1981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>
@@ -1805,523 +2025,530 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="2:11">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="2:11">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="2:11">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="2:11">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="2:11">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="2:11">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="2:11">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="2:11">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="2:11">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" customHeight="1" spans="2:11">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="3:11">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="3:11">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="21" customHeight="1" spans="2:11">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="2:11">
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="2:11">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="2:2">
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
-      <c r="C26" s="11" t="s">
-        <v>21</v>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:4">
-      <c r="C27" s="11" t="s">
-        <v>23</v>
+      <c r="C27" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="E28" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" customHeight="1" spans="4:5">
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" customHeight="1" spans="1:11">
-      <c r="A30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="A30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" customHeight="1" spans="1:11">
-      <c r="A37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="A37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" customHeight="1" spans="1:6">
-      <c r="A38" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20" t="s">
+      <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="21"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" customHeight="1" spans="1:6">
-      <c r="A39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23" t="s">
+      <c r="B39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" customHeight="1" spans="1:6">
-      <c r="A40" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23" t="s">
+      <c r="A40" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="B40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" customHeight="1" spans="1:6">
-      <c r="A41" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23" t="s">
+      <c r="A41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" customHeight="1" spans="1:6">
-      <c r="A42" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23" t="s">
+      <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="23"/>
+      <c r="B42" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="23"/>
+      <c r="B43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23" t="s">
+      <c r="A44" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" customHeight="1" spans="2:4">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" customHeight="1" spans="2:4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:11">
+      <c r="A46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" customHeight="1" spans="1:11">
-      <c r="A47" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2333,193 +2560,191 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" customHeight="1" spans="1:11">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:11">
-      <c r="B50" s="11" t="s">
+      <c r="B48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="24" t="s">
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" customHeight="1" spans="3:11">
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-    </row>
-    <row r="52" customHeight="1" spans="3:11">
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-    </row>
-    <row r="53" customHeight="1" spans="3:11">
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-    </row>
-    <row r="54" customHeight="1" spans="3:11">
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" customHeight="1" spans="3:11">
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-    </row>
-    <row r="56" customHeight="1" spans="2:4">
-      <c r="B56" s="11" t="s">
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="25" t="s">
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="25"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:11">
+      <c r="A58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:11">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:11">
+      <c r="B61" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" customHeight="1" spans="3:11">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+    </row>
+    <row r="63" customHeight="1" spans="3:11">
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" customHeight="1" spans="3:11">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" customHeight="1" spans="3:11">
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" customHeight="1" spans="3:11">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:4">
+      <c r="B67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:2">
-      <c r="A62" s="1" t="s">
+      <c r="B71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:11">
-      <c r="A64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:11">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="4:4">
+      <c r="D92" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B14:K14"/>
@@ -2561,20 +2786,21 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B56:K56"/>
     <mergeCell ref="B60:K60"/>
-    <mergeCell ref="B62:K62"/>
-    <mergeCell ref="B66:K66"/>
-    <mergeCell ref="B68:K68"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="B72:K72"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="B71:K71"/>
+    <mergeCell ref="B73:K73"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="B6:K12"/>
-    <mergeCell ref="A47:K48"/>
-    <mergeCell ref="C50:K55"/>
-    <mergeCell ref="A64:K65"/>
+    <mergeCell ref="A46:K47"/>
+    <mergeCell ref="A58:K59"/>
+    <mergeCell ref="C61:K66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
